--- a/SVG2.xlsx
+++ b/SVG2.xlsx
@@ -16,9 +16,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve"> Rendering Model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xyz</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2906,10 +2910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q21"/>
+  <dimension ref="A2:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:Q21"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3300,6 +3304,11 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
+    <row r="22" spans="1:17">
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:Q21"/>

--- a/SVG2.xlsx
+++ b/SVG2.xlsx
@@ -16,13 +16,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"> Rendering Model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>xyz</t>
+    <t>Dimension: [x,y,width,height]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>preserveAspectRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;align&gt; [meet | slice]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zoomAndPan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>disable | magnify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>viewBox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[x y width height]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>svg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -75,13 +103,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2910,10 +2941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:Q22"/>
+  <dimension ref="A2:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3305,14 +3336,48 @@
       <c r="Q21" s="1"/>
     </row>
     <row r="22" spans="1:17">
+      <c r="A22" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="B22" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="3"/>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
+      <c r="A24" s="3"/>
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="A25" s="3"/>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="A26" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="B2:Q21"/>
     <mergeCell ref="A2:A21"/>
+    <mergeCell ref="A22:A26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
